--- a/Shraddha Hospital/IPD 20-21 PC.xlsx
+++ b/Shraddha Hospital/IPD 20-21 PC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7980" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="IPD 17-18" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="1003">
   <si>
     <t>DATE</t>
   </si>
@@ -3079,6 +3079,9 @@
   </si>
   <si>
     <t>Near life line hospital kesnand phata wagholi pune.</t>
+  </si>
+  <si>
+    <t>19/2020</t>
   </si>
 </sst>
 </file>
@@ -20528,7 +20531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -20618,10 +20621,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21009,6 +21012,26 @@
         <v>524</v>
       </c>
     </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="94">
+        <v>44009</v>
+      </c>
+      <c r="B13" s="90">
+        <v>2</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F13" s="90" t="s">
+        <v>526</v>
+      </c>
+      <c r="I13" s="94">
+        <v>44009</v>
+      </c>
+      <c r="L13" s="90" t="s">
+        <v>524</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
